--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123042a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123042a.xlsx
@@ -1,43 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+  <si>
+    <t>unnamed: 1_level_0</t>
+  </si>
+  <si>
+    <t>sem instrução</t>
+  </si>
+  <si>
+    <t>fundamental ou equivalente</t>
+  </si>
+  <si>
+    <t>médio ou equivalente</t>
+  </si>
+  <si>
+    <t>superior ou equivalente</t>
+  </si>
+  <si>
+    <t>unnamed: 1_level_1</t>
+  </si>
+  <si>
+    <t>unnamed: 2_level_1</t>
+  </si>
+  <si>
+    <t>incompleto</t>
+  </si>
+  <si>
+    <t>completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               brasil</t>
+  </si>
+  <si>
+    <t>situação do domicílio</t>
+  </si>
+  <si>
+    <t>urbana</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>grandes regiões e unidades da federação</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>rondônia</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>amazonas</t>
+  </si>
+  <si>
+    <t>roraima</t>
+  </si>
+  <si>
+    <t>pará</t>
+  </si>
+  <si>
+    <t>amapá</t>
+  </si>
+  <si>
+    <t>tocantins</t>
+  </si>
+  <si>
+    <t>nordeste</t>
+  </si>
+  <si>
+    <t>maranhão</t>
+  </si>
+  <si>
+    <t>piauí</t>
+  </si>
+  <si>
+    <t>ceará</t>
+  </si>
+  <si>
+    <t>rio grande do norte</t>
+  </si>
+  <si>
+    <t>paraíba</t>
+  </si>
+  <si>
+    <t>pernambuco</t>
+  </si>
+  <si>
+    <t>alagoas</t>
+  </si>
+  <si>
+    <t>sergipe</t>
+  </si>
+  <si>
+    <t>bahia</t>
+  </si>
+  <si>
+    <t>sudeste</t>
+  </si>
+  <si>
+    <t>minas gerais</t>
+  </si>
+  <si>
+    <t>espírito santo</t>
+  </si>
+  <si>
+    <t>rio de janeiro</t>
+  </si>
+  <si>
+    <t>são paulo</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>paraná</t>
+  </si>
+  <si>
+    <t>santa catarina</t>
+  </si>
+  <si>
+    <t>rio grande do sul</t>
+  </si>
+  <si>
+    <t>centro-oeste</t>
+  </si>
+  <si>
+    <t>mato grosso do sul</t>
+  </si>
+  <si>
+    <t>mato grosso</t>
+  </si>
+  <si>
+    <t>goiás</t>
+  </si>
+  <si>
+    <t>distrito federal</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,30 +192,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,83 +211,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -441,1201 +508,1083 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1_level_0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sem instrução</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Fundamental ou equivalente</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Médio ou equivalente</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Superior ou equivalente</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2_level_1</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incompleto </t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Completo </t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incompleto </t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Completo </t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Incompleto </t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Completo </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               Brasil</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>3.15</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.24</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2.11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.34</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.22</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2.82</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>2.66</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Situação do domicílio</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Urbana</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>3.47</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.34</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.18</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.41</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2.85</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>2.66</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>7.02</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>9.369999999999999</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>10.62</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>8.050000000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>18.41</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>20.1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Grandes Regiões e Unidades da Federação</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Norte</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>7.79</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.02</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>4.99</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.67</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2.85</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>6.56</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>6.85</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Rondônia</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>17.28</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>7.8</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>16.57</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>16.39</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>8.92</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>17.23</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>22.01</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Acre</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>18.77</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>12.71</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>13.25</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>14.45</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>7.13</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>19.92</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>20.6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Amazonas</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>23.15</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>6.46</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>12.62</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>15.81</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>6.97</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>22.01</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>19.69</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Roraima</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>34.77</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>13.52</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>16.05</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>19.75</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>10.22</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>32.73</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>39.3</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Pará</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>12.57</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>4.55</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>7.3</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>5.92</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>4.2</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>9.98</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>9.859999999999999</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Amapá</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>29.58</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>10.83</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>14.34</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>14.05</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>9.460000000000001</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>17.88</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>31.47</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Tocantins</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>16.1</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>6.37</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>15.58</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>17.68</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>9.029999999999999</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>14.62</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>13.4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>4.79</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2.22</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>3.77</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>3.8</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2.28</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>5.47</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>5.38</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Maranhão</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>16.57</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>8.27</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>12.79</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>17.51</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>9.130000000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>26.86</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>24.31</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Piauí</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>12.25</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>7.61</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>19.61</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>19.96</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>10.66</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>25.08</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>23.41</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Ceará</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>10.63</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>3.25</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>5.9</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>5.53</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>4.32</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>9.84</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>9.48</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Rio Grande do Norte</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>12.29</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>8.210000000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>14.42</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>16.24</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>8.640000000000001</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>19.74</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>24.17</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Paraíba</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>20.57</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>10.86</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>17.29</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>13.18</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>10.19</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>23.27</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>22.16</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Pernambuco</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>12.58</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>4.55</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>8.98</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>8.85</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>4.57</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>10.47</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>9.82</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Alagoas</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>17.43</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>7.6</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>20.36</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>19.68</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>13.94</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>29.4</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>24.35</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>20.58</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>7.81</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>13.86</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>15.68</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>16.61</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>22.25</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>26.68</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>9.02</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>3.83</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>7.67</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>6.17</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>3.44</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>9.359999999999999</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>8.619999999999999</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Sudeste</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" t="n">
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>6.67</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.4</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>3.83</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>4.82</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.11</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>4.69</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>4.06</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Minas Gerais</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" t="n">
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>8.57</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>3.37</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>6.96</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>8.09</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>4.03</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>8.31</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>7.56</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Espírito Santo</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" t="n">
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>22.9</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>7.94</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>12.27</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>14.54</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>7.94</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>21.42</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>19.4</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="n">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>14.28</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5.13</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>8.01</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>9.6</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>4.29</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>8.779999999999999</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>8.140000000000001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="n">
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>11.86</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>3.94</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>5.76</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>7.46</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>3.03</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>7.09</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>5.68</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Sul</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="n">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>9.23</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>3.13</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>4.97</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>6.73</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>3.37</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>5.96</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>6.11</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Paraná</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" t="n">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>14.97</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>5.48</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>8.68</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>10.64</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>5.34</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>10.51</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>8.779999999999999</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Santa Catarina</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>16.79</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>7.76</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>10.31</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>20.15</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>7.8</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>16.25</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>15.35</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Rio Grande do Sul</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
         <v>15.25</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>4.14</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>6.9</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>9.220000000000001</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>5.11</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>7.83</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>9.880000000000001</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Centro-Oeste</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
         <v>8.300000000000001</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>2.81</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>5.58</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>4.97</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>3.42</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>7.47</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>6.2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Mato Grosso do Sul</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>17.9</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>6.72</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>11.84</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>12.08</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>10.12</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>18.29</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>18.56</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Mato Grosso</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>20.21</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>6.21</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>14.81</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>11.96</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>7.68</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>16.9</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>14.24</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Goiás</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
         <v>10.97</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>4.17</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>8.59</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>7.82</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>5.52</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>13.41</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>9.44</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Distrito Federal</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>33.07</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.61</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>11.05</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>8.890000000000001</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>5.4</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>11</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>10.62</v>
       </c>
     </row>
@@ -1645,6 +1594,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123042a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123042a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -31,7 +31,7 @@
     <t>superior ou equivalente</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>unnamed: 2_level_1</t>
@@ -46,16 +46,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -509,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,6 +590,30 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.47</v>
+      </c>
+      <c r="D5">
+        <v>1.34</v>
+      </c>
+      <c r="E5">
+        <v>2.18</v>
+      </c>
+      <c r="F5">
+        <v>2.41</v>
+      </c>
+      <c r="G5">
+        <v>1.22</v>
+      </c>
+      <c r="H5">
+        <v>2.85</v>
+      </c>
+      <c r="I5">
+        <v>2.66</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
@@ -605,25 +623,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.47</v>
+        <v>7.02</v>
       </c>
       <c r="D6">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="E6">
-        <v>2.18</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F6">
-        <v>2.41</v>
+        <v>10.62</v>
       </c>
       <c r="G6">
-        <v>1.22</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H6">
-        <v>2.85</v>
+        <v>18.41</v>
       </c>
       <c r="I6">
-        <v>2.66</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -634,31 +652,55 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.02</v>
+        <v>7.79</v>
       </c>
       <c r="D7">
-        <v>3.1</v>
+        <v>3.02</v>
       </c>
       <c r="E7">
-        <v>9.369999999999999</v>
+        <v>4.99</v>
       </c>
       <c r="F7">
-        <v>10.62</v>
+        <v>4.67</v>
       </c>
       <c r="G7">
-        <v>8.050000000000001</v>
+        <v>2.85</v>
       </c>
       <c r="H7">
-        <v>18.41</v>
+        <v>6.56</v>
       </c>
       <c r="I7">
-        <v>20.1</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>17.28</v>
+      </c>
+      <c r="D8">
+        <v>7.8</v>
+      </c>
+      <c r="E8">
+        <v>16.57</v>
+      </c>
+      <c r="F8">
+        <v>16.39</v>
+      </c>
+      <c r="G8">
+        <v>8.92</v>
+      </c>
+      <c r="H8">
+        <v>17.23</v>
+      </c>
+      <c r="I8">
+        <v>22.01</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
@@ -668,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.79</v>
+        <v>18.77</v>
       </c>
       <c r="D9">
-        <v>3.02</v>
+        <v>12.71</v>
       </c>
       <c r="E9">
-        <v>4.99</v>
+        <v>13.25</v>
       </c>
       <c r="F9">
-        <v>4.67</v>
+        <v>14.45</v>
       </c>
       <c r="G9">
-        <v>2.85</v>
+        <v>7.13</v>
       </c>
       <c r="H9">
-        <v>6.56</v>
+        <v>19.92</v>
       </c>
       <c r="I9">
-        <v>6.85</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,25 +739,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>17.28</v>
+        <v>23.15</v>
       </c>
       <c r="D10">
-        <v>7.8</v>
+        <v>6.46</v>
       </c>
       <c r="E10">
-        <v>16.57</v>
+        <v>12.62</v>
       </c>
       <c r="F10">
-        <v>16.39</v>
+        <v>15.81</v>
       </c>
       <c r="G10">
-        <v>8.92</v>
+        <v>6.97</v>
       </c>
       <c r="H10">
-        <v>17.23</v>
+        <v>22.01</v>
       </c>
       <c r="I10">
-        <v>22.01</v>
+        <v>19.69</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -726,25 +768,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>18.77</v>
+        <v>34.77</v>
       </c>
       <c r="D11">
-        <v>12.71</v>
+        <v>13.52</v>
       </c>
       <c r="E11">
-        <v>13.25</v>
+        <v>16.05</v>
       </c>
       <c r="F11">
-        <v>14.45</v>
+        <v>19.75</v>
       </c>
       <c r="G11">
-        <v>7.13</v>
+        <v>10.22</v>
       </c>
       <c r="H11">
-        <v>19.92</v>
+        <v>32.73</v>
       </c>
       <c r="I11">
-        <v>20.6</v>
+        <v>39.3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -755,25 +797,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>23.15</v>
+        <v>12.57</v>
       </c>
       <c r="D12">
-        <v>6.46</v>
+        <v>4.55</v>
       </c>
       <c r="E12">
-        <v>12.62</v>
+        <v>7.3</v>
       </c>
       <c r="F12">
-        <v>15.81</v>
+        <v>5.92</v>
       </c>
       <c r="G12">
-        <v>6.97</v>
+        <v>4.2</v>
       </c>
       <c r="H12">
-        <v>22.01</v>
+        <v>9.98</v>
       </c>
       <c r="I12">
-        <v>19.69</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -784,25 +826,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>34.77</v>
+        <v>29.58</v>
       </c>
       <c r="D13">
-        <v>13.52</v>
+        <v>10.83</v>
       </c>
       <c r="E13">
-        <v>16.05</v>
+        <v>14.34</v>
       </c>
       <c r="F13">
-        <v>19.75</v>
+        <v>14.05</v>
       </c>
       <c r="G13">
-        <v>10.22</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="H13">
-        <v>32.73</v>
+        <v>17.88</v>
       </c>
       <c r="I13">
-        <v>39.3</v>
+        <v>31.47</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -813,25 +855,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.57</v>
+        <v>16.1</v>
       </c>
       <c r="D14">
-        <v>4.55</v>
+        <v>6.37</v>
       </c>
       <c r="E14">
-        <v>7.3</v>
+        <v>15.58</v>
       </c>
       <c r="F14">
-        <v>5.92</v>
+        <v>17.68</v>
       </c>
       <c r="G14">
-        <v>4.2</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="H14">
-        <v>9.98</v>
+        <v>14.62</v>
       </c>
       <c r="I14">
-        <v>9.859999999999999</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -842,25 +884,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>29.58</v>
+        <v>4.79</v>
       </c>
       <c r="D15">
-        <v>10.83</v>
+        <v>2.22</v>
       </c>
       <c r="E15">
-        <v>14.34</v>
+        <v>3.77</v>
       </c>
       <c r="F15">
-        <v>14.05</v>
+        <v>3.8</v>
       </c>
       <c r="G15">
-        <v>9.460000000000001</v>
+        <v>2.28</v>
       </c>
       <c r="H15">
-        <v>17.88</v>
+        <v>5.47</v>
       </c>
       <c r="I15">
-        <v>31.47</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -871,25 +913,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>16.1</v>
+        <v>16.57</v>
       </c>
       <c r="D16">
-        <v>6.37</v>
+        <v>8.27</v>
       </c>
       <c r="E16">
-        <v>15.58</v>
+        <v>12.79</v>
       </c>
       <c r="F16">
-        <v>17.68</v>
+        <v>17.51</v>
       </c>
       <c r="G16">
-        <v>9.029999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="H16">
-        <v>14.62</v>
+        <v>26.86</v>
       </c>
       <c r="I16">
-        <v>13.4</v>
+        <v>24.31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -900,25 +942,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.79</v>
+        <v>12.25</v>
       </c>
       <c r="D17">
-        <v>2.22</v>
+        <v>7.61</v>
       </c>
       <c r="E17">
-        <v>3.77</v>
+        <v>19.61</v>
       </c>
       <c r="F17">
-        <v>3.8</v>
+        <v>19.96</v>
       </c>
       <c r="G17">
-        <v>2.28</v>
+        <v>10.66</v>
       </c>
       <c r="H17">
-        <v>5.47</v>
+        <v>25.08</v>
       </c>
       <c r="I17">
-        <v>5.38</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -929,25 +971,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>16.57</v>
+        <v>10.63</v>
       </c>
       <c r="D18">
-        <v>8.27</v>
+        <v>3.25</v>
       </c>
       <c r="E18">
-        <v>12.79</v>
+        <v>5.9</v>
       </c>
       <c r="F18">
-        <v>17.51</v>
+        <v>5.53</v>
       </c>
       <c r="G18">
-        <v>9.130000000000001</v>
+        <v>4.32</v>
       </c>
       <c r="H18">
-        <v>26.86</v>
+        <v>9.84</v>
       </c>
       <c r="I18">
-        <v>24.31</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -958,25 +1000,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.25</v>
+        <v>12.29</v>
       </c>
       <c r="D19">
-        <v>7.61</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E19">
-        <v>19.61</v>
+        <v>14.42</v>
       </c>
       <c r="F19">
-        <v>19.96</v>
+        <v>16.24</v>
       </c>
       <c r="G19">
-        <v>10.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="H19">
-        <v>25.08</v>
+        <v>19.74</v>
       </c>
       <c r="I19">
-        <v>23.41</v>
+        <v>24.17</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -987,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.63</v>
+        <v>20.57</v>
       </c>
       <c r="D20">
-        <v>3.25</v>
+        <v>10.86</v>
       </c>
       <c r="E20">
-        <v>5.9</v>
+        <v>17.29</v>
       </c>
       <c r="F20">
-        <v>5.53</v>
+        <v>13.18</v>
       </c>
       <c r="G20">
-        <v>4.32</v>
+        <v>10.19</v>
       </c>
       <c r="H20">
-        <v>9.84</v>
+        <v>23.27</v>
       </c>
       <c r="I20">
-        <v>9.48</v>
+        <v>22.16</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1016,25 +1058,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.29</v>
+        <v>12.58</v>
       </c>
       <c r="D21">
-        <v>8.210000000000001</v>
+        <v>4.55</v>
       </c>
       <c r="E21">
-        <v>14.42</v>
+        <v>8.98</v>
       </c>
       <c r="F21">
-        <v>16.24</v>
+        <v>8.85</v>
       </c>
       <c r="G21">
-        <v>8.640000000000001</v>
+        <v>4.57</v>
       </c>
       <c r="H21">
-        <v>19.74</v>
+        <v>10.47</v>
       </c>
       <c r="I21">
-        <v>24.17</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1045,25 +1087,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>20.57</v>
+        <v>17.43</v>
       </c>
       <c r="D22">
-        <v>10.86</v>
+        <v>7.6</v>
       </c>
       <c r="E22">
-        <v>17.29</v>
+        <v>20.36</v>
       </c>
       <c r="F22">
-        <v>13.18</v>
+        <v>19.68</v>
       </c>
       <c r="G22">
-        <v>10.19</v>
+        <v>13.94</v>
       </c>
       <c r="H22">
-        <v>23.27</v>
+        <v>29.4</v>
       </c>
       <c r="I22">
-        <v>22.16</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1074,25 +1116,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.58</v>
+        <v>20.58</v>
       </c>
       <c r="D23">
-        <v>4.55</v>
+        <v>7.81</v>
       </c>
       <c r="E23">
-        <v>8.98</v>
+        <v>13.86</v>
       </c>
       <c r="F23">
-        <v>8.85</v>
+        <v>15.68</v>
       </c>
       <c r="G23">
-        <v>4.57</v>
+        <v>16.61</v>
       </c>
       <c r="H23">
-        <v>10.47</v>
+        <v>22.25</v>
       </c>
       <c r="I23">
-        <v>9.82</v>
+        <v>26.68</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1103,25 +1145,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>17.43</v>
+        <v>9.02</v>
       </c>
       <c r="D24">
-        <v>7.6</v>
+        <v>3.83</v>
       </c>
       <c r="E24">
-        <v>20.36</v>
+        <v>7.67</v>
       </c>
       <c r="F24">
-        <v>19.68</v>
+        <v>6.17</v>
       </c>
       <c r="G24">
-        <v>13.94</v>
+        <v>3.44</v>
       </c>
       <c r="H24">
-        <v>29.4</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I24">
-        <v>24.35</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1132,25 +1174,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>20.58</v>
+        <v>6.67</v>
       </c>
       <c r="D25">
-        <v>7.81</v>
+        <v>2.4</v>
       </c>
       <c r="E25">
-        <v>13.86</v>
+        <v>3.83</v>
       </c>
       <c r="F25">
-        <v>15.68</v>
+        <v>4.82</v>
       </c>
       <c r="G25">
-        <v>16.61</v>
+        <v>2.11</v>
       </c>
       <c r="H25">
-        <v>22.25</v>
+        <v>4.69</v>
       </c>
       <c r="I25">
-        <v>26.68</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1161,25 +1203,25 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>9.02</v>
+        <v>8.57</v>
       </c>
       <c r="D26">
-        <v>3.83</v>
+        <v>3.37</v>
       </c>
       <c r="E26">
-        <v>7.67</v>
+        <v>6.96</v>
       </c>
       <c r="F26">
-        <v>6.17</v>
+        <v>8.09</v>
       </c>
       <c r="G26">
-        <v>3.44</v>
+        <v>4.03</v>
       </c>
       <c r="H26">
-        <v>9.359999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="I26">
-        <v>8.619999999999999</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1190,25 +1232,25 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>6.67</v>
+        <v>22.9</v>
       </c>
       <c r="D27">
-        <v>2.4</v>
+        <v>7.94</v>
       </c>
       <c r="E27">
-        <v>3.83</v>
+        <v>12.27</v>
       </c>
       <c r="F27">
-        <v>4.82</v>
+        <v>14.54</v>
       </c>
       <c r="G27">
-        <v>2.11</v>
+        <v>7.94</v>
       </c>
       <c r="H27">
-        <v>4.69</v>
+        <v>21.42</v>
       </c>
       <c r="I27">
-        <v>4.06</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1219,25 +1261,25 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>8.57</v>
+        <v>14.28</v>
       </c>
       <c r="D28">
-        <v>3.37</v>
+        <v>5.13</v>
       </c>
       <c r="E28">
-        <v>6.96</v>
+        <v>8.01</v>
       </c>
       <c r="F28">
-        <v>8.09</v>
+        <v>9.6</v>
       </c>
       <c r="G28">
-        <v>4.03</v>
+        <v>4.29</v>
       </c>
       <c r="H28">
-        <v>8.31</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="I28">
-        <v>7.56</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1248,25 +1290,25 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>22.9</v>
+        <v>11.86</v>
       </c>
       <c r="D29">
-        <v>7.94</v>
+        <v>3.94</v>
       </c>
       <c r="E29">
-        <v>12.27</v>
+        <v>5.76</v>
       </c>
       <c r="F29">
-        <v>14.54</v>
+        <v>7.46</v>
       </c>
       <c r="G29">
-        <v>7.94</v>
+        <v>3.03</v>
       </c>
       <c r="H29">
-        <v>21.42</v>
+        <v>7.09</v>
       </c>
       <c r="I29">
-        <v>19.4</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1277,25 +1319,25 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>14.28</v>
+        <v>9.23</v>
       </c>
       <c r="D30">
-        <v>5.13</v>
+        <v>3.13</v>
       </c>
       <c r="E30">
-        <v>8.01</v>
+        <v>4.97</v>
       </c>
       <c r="F30">
-        <v>9.6</v>
+        <v>6.73</v>
       </c>
       <c r="G30">
-        <v>4.29</v>
+        <v>3.37</v>
       </c>
       <c r="H30">
-        <v>8.779999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="I30">
-        <v>8.140000000000001</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1306,25 +1348,25 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>11.86</v>
+        <v>14.97</v>
       </c>
       <c r="D31">
-        <v>3.94</v>
+        <v>5.48</v>
       </c>
       <c r="E31">
-        <v>5.76</v>
+        <v>8.68</v>
       </c>
       <c r="F31">
-        <v>7.46</v>
+        <v>10.64</v>
       </c>
       <c r="G31">
-        <v>3.03</v>
+        <v>5.34</v>
       </c>
       <c r="H31">
-        <v>7.09</v>
+        <v>10.51</v>
       </c>
       <c r="I31">
-        <v>5.68</v>
+        <v>8.779999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1335,25 +1377,25 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>9.23</v>
+        <v>16.79</v>
       </c>
       <c r="D32">
-        <v>3.13</v>
+        <v>7.76</v>
       </c>
       <c r="E32">
-        <v>4.97</v>
+        <v>10.31</v>
       </c>
       <c r="F32">
-        <v>6.73</v>
+        <v>20.15</v>
       </c>
       <c r="G32">
-        <v>3.37</v>
+        <v>7.8</v>
       </c>
       <c r="H32">
-        <v>5.96</v>
+        <v>16.25</v>
       </c>
       <c r="I32">
-        <v>6.11</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1364,25 +1406,25 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>14.97</v>
+        <v>15.25</v>
       </c>
       <c r="D33">
-        <v>5.48</v>
+        <v>4.14</v>
       </c>
       <c r="E33">
-        <v>8.68</v>
+        <v>6.9</v>
       </c>
       <c r="F33">
-        <v>10.64</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="G33">
-        <v>5.34</v>
+        <v>5.11</v>
       </c>
       <c r="H33">
-        <v>10.51</v>
+        <v>7.83</v>
       </c>
       <c r="I33">
-        <v>8.779999999999999</v>
+        <v>9.880000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1393,25 +1435,25 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>16.79</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D34">
-        <v>7.76</v>
+        <v>2.81</v>
       </c>
       <c r="E34">
-        <v>10.31</v>
+        <v>5.58</v>
       </c>
       <c r="F34">
-        <v>20.15</v>
+        <v>4.97</v>
       </c>
       <c r="G34">
-        <v>7.8</v>
+        <v>3.42</v>
       </c>
       <c r="H34">
-        <v>16.25</v>
+        <v>7.47</v>
       </c>
       <c r="I34">
-        <v>15.35</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1422,25 +1464,25 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>15.25</v>
+        <v>17.9</v>
       </c>
       <c r="D35">
-        <v>4.14</v>
+        <v>6.72</v>
       </c>
       <c r="E35">
-        <v>6.9</v>
+        <v>11.84</v>
       </c>
       <c r="F35">
-        <v>9.220000000000001</v>
+        <v>12.08</v>
       </c>
       <c r="G35">
-        <v>5.11</v>
+        <v>10.12</v>
       </c>
       <c r="H35">
-        <v>7.83</v>
+        <v>18.29</v>
       </c>
       <c r="I35">
-        <v>9.880000000000001</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1451,25 +1493,25 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>8.300000000000001</v>
+        <v>20.21</v>
       </c>
       <c r="D36">
-        <v>2.81</v>
+        <v>6.21</v>
       </c>
       <c r="E36">
-        <v>5.58</v>
+        <v>14.81</v>
       </c>
       <c r="F36">
-        <v>4.97</v>
+        <v>11.96</v>
       </c>
       <c r="G36">
-        <v>3.42</v>
+        <v>7.68</v>
       </c>
       <c r="H36">
-        <v>7.47</v>
+        <v>16.9</v>
       </c>
       <c r="I36">
-        <v>6.2</v>
+        <v>14.24</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1480,25 +1522,25 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>17.9</v>
+        <v>10.97</v>
       </c>
       <c r="D37">
-        <v>6.72</v>
+        <v>4.17</v>
       </c>
       <c r="E37">
-        <v>11.84</v>
+        <v>8.59</v>
       </c>
       <c r="F37">
-        <v>12.08</v>
+        <v>7.82</v>
       </c>
       <c r="G37">
-        <v>10.12</v>
+        <v>5.52</v>
       </c>
       <c r="H37">
-        <v>18.29</v>
+        <v>13.41</v>
       </c>
       <c r="I37">
-        <v>18.56</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1509,82 +1551,24 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>20.21</v>
+        <v>33.07</v>
       </c>
       <c r="D38">
-        <v>6.21</v>
+        <v>6.61</v>
       </c>
       <c r="E38">
-        <v>14.81</v>
+        <v>11.05</v>
       </c>
       <c r="F38">
-        <v>11.96</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G38">
-        <v>7.68</v>
+        <v>5.4</v>
       </c>
       <c r="H38">
-        <v>16.9</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>14.24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>10.97</v>
-      </c>
-      <c r="D39">
-        <v>4.17</v>
-      </c>
-      <c r="E39">
-        <v>8.59</v>
-      </c>
-      <c r="F39">
-        <v>7.82</v>
-      </c>
-      <c r="G39">
-        <v>5.52</v>
-      </c>
-      <c r="H39">
-        <v>13.41</v>
-      </c>
-      <c r="I39">
-        <v>9.44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>33.07</v>
-      </c>
-      <c r="D40">
-        <v>6.61</v>
-      </c>
-      <c r="E40">
-        <v>11.05</v>
-      </c>
-      <c r="F40">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="G40">
-        <v>5.4</v>
-      </c>
-      <c r="H40">
-        <v>11</v>
-      </c>
-      <c r="I40">
         <v>10.62</v>
       </c>
     </row>
